--- a/RAW_DATA/exp05/VALUE221102EXP05.xlsx
+++ b/RAW_DATA/exp05/VALUE221102EXP05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\! !PKNU\2학년 2학기\0.디스플레이광학실습\OpticsPractice-value\RAW_DATA\exp05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37C900-A06A-4A11-B973-31C269547326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CDC1FD-C218-4298-A2B9-C49761CB9CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0D50C532-A727-4C89-896A-8041F2515B91}"/>
+    <workbookView xWindow="5865" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{0D50C532-A727-4C89-896A-8041F2515B91}"/>
   </bookViews>
   <sheets>
     <sheet name="광실습5-1" sheetId="2" r:id="rId1"/>
@@ -497,13 +497,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -528,10 +529,10 @@
         <v>266.5</v>
       </c>
       <c r="C2">
-        <v>304.8</v>
-      </c>
-      <c r="D2">
-        <v>228.1</v>
+        <v>325.90000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>205.54999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,9 +543,9 @@
         <v>266.5</v>
       </c>
       <c r="C3">
-        <v>304.7</v>
-      </c>
-      <c r="D3">
+        <v>325.8</v>
+      </c>
+      <c r="D3" s="1">
         <v>205.6</v>
       </c>
     </row>
@@ -556,10 +557,10 @@
         <v>266.5</v>
       </c>
       <c r="C4">
-        <v>304.8</v>
-      </c>
-      <c r="D4">
-        <v>228.2</v>
+        <v>325.90000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>205.64999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F2D85-5BD2-422B-B0EA-B11D3614FDF4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A55625A-9A72-4D49-9D52-F1F9826E4CCA}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,21 +865,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003115CE5FD07E984AA7413DB95A7461ED" ma:contentTypeVersion="3" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="836be32e3bea1204a8f83ad4b9bfd91b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b893d1d1-cb3c-46d7-8a35-27a47341d757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="611d6e40fb3384751e8e13d6445a8e21" ns3:_="">
     <xsd:import namespace="b893d1d1-cb3c-46d7-8a35-27a47341d757"/>
@@ -1014,31 +1002,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F85733-C1DF-4599-BC99-7D1639FEE3BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b893d1d1-cb3c-46d7-8a35-27a47341d757"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9F3927-495E-4689-B499-47CFC918141A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FA530D-F3DA-4687-AAB0-AD2E49AD362C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1054,4 +1033,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9F3927-495E-4689-B499-47CFC918141A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F85733-C1DF-4599-BC99-7D1639FEE3BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b893d1d1-cb3c-46d7-8a35-27a47341d757"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>